--- a/rss-fetcher/runtime/outputs/文章汇总分析_20251216_114541.xlsx
+++ b/rss-fetcher/runtime/outputs/文章汇总分析_20251216_114541.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -226,7 +226,31 @@
     <t>成功</t>
   </si>
   <si>
+    <t>[愉悦身心: 20, 开阔眼界: 45, 激发思维: 80] 文章以结构化方式梳理了人工智能领域的最新技术进展和应用场景，尤其在大语言模型与多模态AI方面提供了丰富信息，并系统分析了发展中面临的挑战。虽然涉及伦理等思辨内容，但整体重在知识普及与趋势梳理，因此以‘了解新知’为主维度，分数较高。</t>
+  </si>
+  <si>
+    <t>人工智能前沿技术与发展挑战</t>
+  </si>
+  <si>
+    <t>本文系统梳理了人工智能技术的最新发展趋势，聚焦于大语言模型和多模态AI的崛起及其对自然语言处理、跨模态理解和科学研究等领域的深远影响。文章详细介绍了这些AI模型如何提升推理与创作能力，并推动药物发现、材料科学等实际应用。同时，分析了人工智能发展过程中面临的数据隐私、算法可解释性、伦理公平性及能源消耗等关键挑战。整体内容为读者提供了关于人工智能前沿技术框架、应用前景与行业痛点的清晰认知，适合关注技术趋势和产业变革的读者深入了解。</t>
+  </si>
+  <si>
+    <t>['人工智能', '大语言模型', '多模态AI', '技术趋势', '伦理挑战']</t>
+  </si>
+  <si>
     <t>[]</t>
+  </si>
+  <si>
+    <t>了解新知</t>
+  </si>
+  <si>
+    <t>{"title": "人工智能的发展趋势", "summary_long": "文章开篇指出人工智能（AI）正处于快速发展阶段，并对各行各业产生深远影响。作者明确本文旨在探讨AI的最新发展趋势及未来展望。首先，文章强调大语言模型（LLM）的崛起，点名GPT和Claude等代表性模型，指出它们不仅具备理解和生成自然语言的能力，还能胜任复杂推理和创作任务。其次，作者介绍多模态AI的发展，强调此类系统能同时处理文本、图像、音频等多种数据类型，从而实现更全面的理解和人机交互。第三，文章分析AI在科学研究中的应用，具体提到AI正在加速药物发现和材料科学等领域的进展，帮助科学家解决复杂问题。转折部分，作者指出AI发展面临的主要挑战，包括数据隐私与安全、算法可解释性、伦理与公平性、以及能源消耗和环境影响等。结尾部分，文章呼吁在推动AI创新的同时，必须正视并应对上述挑战，以确保人工智能技术的健康可持续发展。", "key_arguments": ["大语言模型（如GPT、Claude）的崛起显著提升了AI的自然语言处理和推理能力。", "多模态AI推动了跨领域数据理解和更自然的人机交互。", "AI正在加速科学研究进程，但发展过程中面临数据隐私、可解释性、伦理、公平性及环境影响等挑战。"], "mentioned_resources": ["GPT（OpenAI）- 作为大语言模型的代表，展现了强大的自然语言处理和推理能力。", "Claude（Anthropic）- 与GPT并列，代表新一代大语言模型。"], "keywords": ["人工智能", "大语言模型", "多模态AI", "可解释性", "数据隐私", "伦理", "科学研究", "能源消耗"], "style_tone": "逻辑严密的分析风格"}</t>
+  </si>
+  <si>
+    <t>2025-12-16T11:56:48</t>
+  </si>
+  <si>
+    <t>2025-12-16T11:58:30</t>
   </si>
   <si>
     <t>sample_article_1.md</t>
@@ -747,22 +771,49 @@
         <v>46</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>52</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>55</v>
       </c>
       <c r="AD2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AE2">
         <v>423</v>
       </c>
       <c r="AF2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -788,19 +839,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD3" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AE3">
         <v>635</v>
       </c>
       <c r="AF3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -826,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AE4">
         <v>531</v>
       </c>
       <c r="AF4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
